--- a/DB Datos.xlsx
+++ b/DB Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefer\Documents\MATLAB\DolarDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codigos\Git\DolarDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9237D59-03B1-41E7-84ED-74FB5643DE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B505DD9-1F63-4CE5-8B69-C1C808C97832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="3090" windowWidth="16200" windowHeight="9360" activeTab="1" xr2:uid="{8B459BD6-A0E6-4669-B6A2-9CFA8FE989F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8B459BD6-A0E6-4669-B6A2-9CFA8FE989F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Tasa de cambio representativa del mercado (TRM)</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>El coeficiente de correlación lineal</t>
+  </si>
+  <si>
+    <t>Calculos Excel</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA5CDBB-92F5-45A9-8A0F-EFA66CE51800}">
   <dimension ref="A1:B4078"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4063" workbookViewId="0">
       <selection activeCell="A4078" sqref="A1:B4078"/>
     </sheetView>
   </sheetViews>
@@ -33272,35 +33275,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58670D23-68AD-4B4C-A197-46D3804EB453}">
-  <dimension ref="A1:B4079"/>
+  <dimension ref="A1:C4079"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>2966.4320799607531</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>AVERAGE(Hoja1!B2:B4078)</f>
+        <v>2966.4320799607526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -33308,7 +33319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -33316,7 +33327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -33324,7 +33335,7 @@
         <v>5061.21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -33332,7 +33343,7 @@
         <v>1754.89</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -33340,7 +33351,7 @@
         <v>3306.3199999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -33348,7 +33359,7 @@
         <v>2966.4320799607531</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -33356,7 +33367,7 @@
         <v>2850.7910308823671</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -33364,7 +33375,7 @@
         <v>2732.836921152501</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -33372,7 +33383,7 @@
         <v>2994.62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -33380,7 +33391,7 @@
         <v>1797.68</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -33388,7 +33399,7 @@
         <v>811.94494615886663</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -33396,7 +33407,7 @@
         <v>647.64463297731527</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -33404,7 +33415,7 @@
         <v>2966.4320799607531</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
